--- a/info_excel_all.xlsx
+++ b/info_excel_all.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2881" uniqueCount="2185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2881" uniqueCount="2195">
   <si>
     <t>Address</t>
   </si>
@@ -571,12 +571,12 @@
     <t>Особняк в Даевом переулке, 31</t>
   </si>
   <si>
+    <t>Особняк в Подкопаевском переулке, 2</t>
+  </si>
+  <si>
     <t>Особняк в Успенском переулке, 16</t>
   </si>
   <si>
-    <t>Особняк в Подкопаевском переулке, 2</t>
-  </si>
-  <si>
     <t>Особняк на улице Трофимова, 14с1</t>
   </si>
   <si>
@@ -667,12 +667,12 @@
     <t>Особняк на Солянке, 4</t>
   </si>
   <si>
+    <t>Особняк на Садовой-Кудринской улица, 21</t>
+  </si>
+  <si>
     <t>Особняк в Сытинском переулке, 3</t>
   </si>
   <si>
-    <t>Особняк на Садовой-Кудринской улица, 21</t>
-  </si>
-  <si>
     <t>Особняк на Трубной, 25с1</t>
   </si>
   <si>
@@ -760,21 +760,21 @@
     <t>Особняк на Бахрушина, 23</t>
   </si>
   <si>
+    <t>Особняк на Большой Дмитровке, 5/6</t>
+  </si>
+  <si>
     <t>Особняк на улице Потылиха, 1</t>
   </si>
   <si>
-    <t>Особняк на Большой Дмитровке, 5/6</t>
-  </si>
-  <si>
     <t>Особняк на Софийской набережной, 34с2/1</t>
   </si>
   <si>
+    <t>Особняк в Колокольниковом переулке, 7</t>
+  </si>
+  <si>
     <t>Особняк на Сретенке, 12</t>
   </si>
   <si>
-    <t>Особняк в Колокольниковом переулке, 7</t>
-  </si>
-  <si>
     <t>Особняк в 1-м Троицком переулке, 12</t>
   </si>
   <si>
@@ -829,15 +829,15 @@
     <t>Особняк в Гранатном переулке, 6</t>
   </si>
   <si>
+    <t>Особняк на 2-й Брестской улице, 32</t>
+  </si>
+  <si>
+    <t>Особняк в Барыковском переулке, 7</t>
+  </si>
+  <si>
     <t>Особняк на Большой Полянке, 2/10</t>
   </si>
   <si>
-    <t>Особняк на 2-й Брестской улице, 32</t>
-  </si>
-  <si>
-    <t>Особняк в Барыковском переулке, 7</t>
-  </si>
-  <si>
     <t>Особняк на Мясницкой, 13с1</t>
   </si>
   <si>
@@ -1147,12 +1147,12 @@
     <t>Особняк в Голиковском переулке, 14</t>
   </si>
   <si>
+    <t>Особняк на Нижней улице, 9</t>
+  </si>
+  <si>
     <t>Особняк на улице Солянка, 7с1/1</t>
   </si>
   <si>
-    <t>Особняк на Нижней улице, 9</t>
-  </si>
-  <si>
     <t>Особняк в Староконюшенном переулке, 5/14</t>
   </si>
   <si>
@@ -1411,15 +1411,15 @@
     <t>Особняк на Верхней Радищевской, 3</t>
   </si>
   <si>
+    <t>Особняк на Пречистенке, 8</t>
+  </si>
+  <si>
     <t>Особняк в Тессинском переулке, 5</t>
   </si>
   <si>
     <t>Особняк в Столешниковом переулке, 12</t>
   </si>
   <si>
-    <t>Особняк на Пречистенке, 8</t>
-  </si>
-  <si>
     <t>Особняк на Ленинградском проспекте, 80</t>
   </si>
   <si>
@@ -1495,12 +1495,12 @@
     <t>Особняк на Садовнической улице, 29</t>
   </si>
   <si>
+    <t>Особняк в Хилковом переулке, 1</t>
+  </si>
+  <si>
     <t>Особняк в Пожарском переулке, 15</t>
   </si>
   <si>
-    <t>Особняк в Хилковом переулке, 1</t>
-  </si>
-  <si>
     <t>Особняк в Просвирином переулке, 4</t>
   </si>
   <si>
@@ -2314,12 +2314,12 @@
     <t>https://osobnyaki.com//v-daevom-pereulke-31</t>
   </si>
   <si>
+    <t>https://osobnyaki.com//v-podkopaevskom-pereulke-2</t>
+  </si>
+  <si>
     <t>https://osobnyaki.com//v-uspenskom-pereulke-16</t>
   </si>
   <si>
-    <t>https://osobnyaki.com//v-podkopaevskom-pereulke-2</t>
-  </si>
-  <si>
     <t>https://osobnyaki.com//na-ulitse-trofimova-14s1</t>
   </si>
   <si>
@@ -2410,12 +2410,12 @@
     <t>https://osobnyaki.com//na-solyanke-4</t>
   </si>
   <si>
+    <t>https://osobnyaki.com//na-sadovoy-kudrinskoy-ulitsa-21</t>
+  </si>
+  <si>
     <t>https://osobnyaki.com//v-sitinskom-pereulke-3</t>
   </si>
   <si>
-    <t>https://osobnyaki.com//na-sadovoy-kudrinskoy-ulitsa-21</t>
-  </si>
-  <si>
     <t>https://osobnyaki.com//na-trubnoy-25s1</t>
   </si>
   <si>
@@ -2503,21 +2503,21 @@
     <t>https://osobnyaki.com//na-bahrushina-23</t>
   </si>
   <si>
+    <t>https://osobnyaki.com//na-bolshoy-dmitrovke-5-6</t>
+  </si>
+  <si>
     <t>https://osobnyaki.com//na-ulitse-potiliha-1</t>
   </si>
   <si>
-    <t>https://osobnyaki.com//na-bolshoy-dmitrovke-5-6</t>
-  </si>
-  <si>
     <t>https://osobnyaki.com//na-sofiyskoy-naberegnoy-34s2-1</t>
   </si>
   <si>
+    <t>https://osobnyaki.com//v-kolokolnikovom-pereulke-7</t>
+  </si>
+  <si>
     <t>https://osobnyaki.com//na-sretenke-12</t>
   </si>
   <si>
-    <t>https://osobnyaki.com//v-kolokolnikovom-pereulke-7</t>
-  </si>
-  <si>
     <t>https://osobnyaki.com//v-1-m-troitskom-pereulke-12</t>
   </si>
   <si>
@@ -2572,15 +2572,15 @@
     <t>https://osobnyaki.com//v-granatnom-pereulke-6</t>
   </si>
   <si>
+    <t>https://osobnyaki.com//na-2-y-brestskoy-ulitse-32</t>
+  </si>
+  <si>
+    <t>https://osobnyaki.com//v-barikovskom-pereulke-7</t>
+  </si>
+  <si>
     <t>https://osobnyaki.com//na-bolshoy-polyanke-2-10</t>
   </si>
   <si>
-    <t>https://osobnyaki.com//na-2-y-brestskoy-ulitse-32</t>
-  </si>
-  <si>
-    <t>https://osobnyaki.com//v-barikovskom-pereulke-7</t>
-  </si>
-  <si>
     <t>https://osobnyaki.com//na-myasnitskoy-13s1</t>
   </si>
   <si>
@@ -2890,12 +2890,12 @@
     <t>https://osobnyaki.com//v-golikovskom-pereulke-14</t>
   </si>
   <si>
+    <t>https://osobnyaki.com//na-nigney-ulitse-9</t>
+  </si>
+  <si>
     <t>https://osobnyaki.com//na-ulitse-solyanka-7s1-1</t>
   </si>
   <si>
-    <t>https://osobnyaki.com//na-nigney-ulitse-9</t>
-  </si>
-  <si>
     <t>https://osobnyaki.com//v-starokonyushennom-pereulke-5-14</t>
   </si>
   <si>
@@ -3154,15 +3154,15 @@
     <t>https://osobnyaki.com//na-verhney-radishchevskoy-3</t>
   </si>
   <si>
+    <t>https://osobnyaki.com//na-prechistenke-8</t>
+  </si>
+  <si>
     <t>https://osobnyaki.com//v-tessinskom-pereulke-5</t>
   </si>
   <si>
     <t>https://osobnyaki.com//v-stoleshnikovom-pereulke-12</t>
   </si>
   <si>
-    <t>https://osobnyaki.com//na-prechistenke-8</t>
-  </si>
-  <si>
     <t>https://osobnyaki.com//na-leningradskom-prospekte-80</t>
   </si>
   <si>
@@ -3238,12 +3238,12 @@
     <t>https://osobnyaki.com//na-sadovnicheskoy-ulitse-29</t>
   </si>
   <si>
+    <t>https://osobnyaki.com//v-hilkovom-pereulke-1</t>
+  </si>
+  <si>
     <t>https://osobnyaki.com//v-pogarskom-pereulke-15</t>
   </si>
   <si>
-    <t>https://osobnyaki.com//v-hilkovom-pereulke-1</t>
-  </si>
-  <si>
     <t>https://osobnyaki.com//v-prosvirinom-pereulke-4</t>
   </si>
   <si>
@@ -4684,12 +4684,12 @@
     <t>1300</t>
   </si>
   <si>
+    <t>592</t>
+  </si>
+  <si>
     <t>1668</t>
   </si>
   <si>
-    <t>592</t>
-  </si>
-  <si>
     <t>3540</t>
   </si>
   <si>
@@ -4858,21 +4858,21 @@
     <t>1790</t>
   </si>
   <si>
+    <t>545</t>
+  </si>
+  <si>
     <t>962</t>
   </si>
   <si>
-    <t>545</t>
-  </si>
-  <si>
     <t>577</t>
   </si>
   <si>
+    <t>1407</t>
+  </si>
+  <si>
     <t>3686</t>
   </si>
   <si>
-    <t>1407</t>
-  </si>
-  <si>
     <t>2973</t>
   </si>
   <si>
@@ -4927,15 +4927,15 @@
     <t>1225</t>
   </si>
   <si>
+    <t>1395</t>
+  </si>
+  <si>
+    <t>541</t>
+  </si>
+  <si>
     <t>2554</t>
   </si>
   <si>
-    <t>1395</t>
-  </si>
-  <si>
-    <t>541</t>
-  </si>
-  <si>
     <t>3167</t>
   </si>
   <si>
@@ -5479,12 +5479,12 @@
     <t>4160</t>
   </si>
   <si>
+    <t>496</t>
+  </si>
+  <si>
     <t>2475</t>
   </si>
   <si>
-    <t>496</t>
-  </si>
-  <si>
     <t>10000</t>
   </si>
   <si>
@@ -5782,7 +5782,7 @@
     <t>180000000</t>
   </si>
   <si>
-    <t>184630000</t>
+    <t>183930000</t>
   </si>
   <si>
     <t>188800000</t>
@@ -5812,7 +5812,7 @@
     <t>220050000</t>
   </si>
   <si>
-    <t>221560000</t>
+    <t>220720000</t>
   </si>
   <si>
     <t>225600000</t>
@@ -5911,462 +5911,483 @@
     <t>365000000</t>
   </si>
   <si>
+    <t>367860000</t>
+  </si>
+  <si>
+    <t>370000000</t>
+  </si>
+  <si>
+    <t>372400000</t>
+  </si>
+  <si>
+    <t>373110000</t>
+  </si>
+  <si>
+    <t>380000000</t>
+  </si>
+  <si>
+    <t>390000000</t>
+  </si>
+  <si>
+    <t>395000000</t>
+  </si>
+  <si>
+    <t>398000000</t>
+  </si>
+  <si>
+    <t>398720000</t>
+  </si>
+  <si>
+    <t>400000000</t>
+  </si>
+  <si>
+    <t>404170000</t>
+  </si>
+  <si>
+    <t>404640000</t>
+  </si>
+  <si>
+    <t>416190000</t>
+  </si>
+  <si>
+    <t>420000000</t>
+  </si>
+  <si>
+    <t>430000000</t>
+  </si>
+  <si>
+    <t>440000000</t>
+  </si>
+  <si>
+    <t>441430000</t>
+  </si>
+  <si>
+    <t>443110000</t>
+  </si>
+  <si>
+    <t>450000000</t>
+  </si>
+  <si>
+    <t>457880000</t>
+  </si>
+  <si>
+    <t>460000000</t>
+  </si>
+  <si>
+    <t>478220000</t>
+  </si>
+  <si>
+    <t>480000000</t>
+  </si>
+  <si>
+    <t>490000000</t>
+  </si>
+  <si>
+    <t>497850000</t>
+  </si>
+  <si>
+    <t>500000000</t>
+  </si>
+  <si>
+    <t>502190000</t>
+  </si>
+  <si>
+    <t>510000000</t>
+  </si>
+  <si>
+    <t>515000000</t>
+  </si>
+  <si>
+    <t>529710000</t>
+  </si>
+  <si>
+    <t>537720000</t>
+  </si>
+  <si>
+    <t>540000000</t>
+  </si>
+  <si>
+    <t>550000000</t>
+  </si>
+  <si>
+    <t>553890000</t>
+  </si>
+  <si>
+    <t>564230000</t>
+  </si>
+  <si>
+    <t>583000000</t>
+  </si>
+  <si>
+    <t>588570000</t>
+  </si>
+  <si>
+    <t>596000000</t>
+  </si>
+  <si>
+    <t>599400000</t>
+  </si>
+  <si>
+    <t>600000000</t>
+  </si>
+  <si>
+    <t>625360000</t>
+  </si>
+  <si>
+    <t>627740000</t>
+  </si>
+  <si>
+    <t>630000000</t>
+  </si>
+  <si>
+    <t>657510000</t>
+  </si>
+  <si>
+    <t>661090000</t>
+  </si>
+  <si>
+    <t>700000000</t>
+  </si>
+  <si>
+    <t>701590000</t>
+  </si>
+  <si>
+    <t>738510000</t>
+  </si>
+  <si>
+    <t>749120000</t>
+  </si>
+  <si>
+    <t>750000000</t>
+  </si>
+  <si>
+    <t>756230000</t>
+  </si>
+  <si>
+    <t>772310000</t>
+  </si>
+  <si>
+    <t>784300000</t>
+  </si>
+  <si>
+    <t>800000000</t>
+  </si>
+  <si>
+    <t>801930000</t>
+  </si>
+  <si>
+    <t>809280000</t>
+  </si>
+  <si>
+    <t>837750000</t>
+  </si>
+  <si>
+    <t>840000000</t>
+  </si>
+  <si>
+    <t>850000000</t>
+  </si>
+  <si>
+    <t>859260000</t>
+  </si>
+  <si>
+    <t>868140000</t>
+  </si>
+  <si>
+    <t>870000000</t>
+  </si>
+  <si>
+    <t>882850000</t>
+  </si>
+  <si>
+    <t>885000000</t>
+  </si>
+  <si>
+    <t>886220000</t>
+  </si>
+  <si>
+    <t>900000000</t>
+  </si>
+  <si>
+    <t>915760000</t>
+  </si>
+  <si>
+    <t>923140000</t>
+  </si>
+  <si>
+    <t>956430000</t>
+  </si>
+  <si>
+    <t>980000000</t>
+  </si>
+  <si>
+    <t>991430000</t>
+  </si>
+  <si>
+    <t>1000000000</t>
+  </si>
+  <si>
+    <t>1041980000</t>
+  </si>
+  <si>
+    <t>1080000000</t>
+  </si>
+  <si>
+    <t>1080310000</t>
+  </si>
+  <si>
+    <t>1085000000</t>
+  </si>
+  <si>
+    <t>1100000000</t>
+  </si>
+  <si>
+    <t>1103570000</t>
+  </si>
+  <si>
+    <t>1107770000</t>
+  </si>
+  <si>
+    <t>1108450000</t>
+  </si>
+  <si>
+    <t>1200000000</t>
+  </si>
+  <si>
+    <t>1247360000</t>
+  </si>
+  <si>
+    <t>1255000000</t>
+  </si>
+  <si>
+    <t>1260000000</t>
+  </si>
+  <si>
+    <t>1300000000</t>
+  </si>
+  <si>
+    <t>1390000000</t>
+  </si>
+  <si>
+    <t>1500000000</t>
+  </si>
+  <si>
+    <t>1544990000</t>
+  </si>
+  <si>
+    <t>1699980000</t>
+  </si>
+  <si>
+    <t>1772430000</t>
+  </si>
+  <si>
+    <t>1923600000</t>
+  </si>
+  <si>
+    <t>1963760000</t>
+  </si>
+  <si>
+    <t>2000000000</t>
+  </si>
+  <si>
+    <t>2850000000</t>
+  </si>
+  <si>
+    <t>3000000000</t>
+  </si>
+  <si>
+    <t>3089980000</t>
+  </si>
+  <si>
+    <t>3626140000</t>
+  </si>
+  <si>
+    <t>3864000000</t>
+  </si>
+  <si>
+    <t>4200000000</t>
+  </si>
+  <si>
+    <t>7050000000</t>
+  </si>
+  <si>
+    <t>7385100000</t>
+  </si>
+  <si>
+    <t>33000000</t>
+  </si>
+  <si>
+    <t>39000000</t>
+  </si>
+  <si>
+    <t>51000000</t>
+  </si>
+  <si>
+    <t>56000000</t>
+  </si>
+  <si>
+    <t>57050000</t>
+  </si>
+  <si>
+    <t>62000000</t>
+  </si>
+  <si>
+    <t>65000000</t>
+  </si>
+  <si>
+    <t>66380000</t>
+  </si>
+  <si>
+    <t>66700000</t>
+  </si>
+  <si>
+    <t>75200000</t>
+  </si>
+  <si>
+    <t>82210000</t>
+  </si>
+  <si>
+    <t>83300000</t>
+  </si>
+  <si>
+    <t>88800000</t>
+  </si>
+  <si>
+    <t>89000000</t>
+  </si>
+  <si>
+    <t>92900000</t>
+  </si>
+  <si>
+    <t>93870000</t>
+  </si>
+  <si>
+    <t>95000000</t>
+  </si>
+  <si>
+    <t>98000000</t>
+  </si>
+  <si>
+    <t>108000000</t>
+  </si>
+  <si>
+    <t>109000000</t>
+  </si>
+  <si>
+    <t>122000000</t>
+  </si>
+  <si>
+    <t>127000000</t>
+  </si>
+  <si>
+    <t>132900000</t>
+  </si>
+  <si>
+    <t>147150000</t>
+  </si>
+  <si>
+    <t>149000000</t>
+  </si>
+  <si>
+    <t>149400000</t>
+  </si>
+  <si>
+    <t>155000000</t>
+  </si>
+  <si>
+    <t>157000000</t>
+  </si>
+  <si>
+    <t>157500000</t>
+  </si>
+  <si>
+    <t>162000000</t>
+  </si>
+  <si>
+    <t>177000000</t>
+  </si>
+  <si>
+    <t>179850000</t>
+  </si>
+  <si>
+    <t>184480000</t>
+  </si>
+  <si>
+    <t>184690000</t>
+  </si>
+  <si>
+    <t>185000000</t>
+  </si>
+  <si>
+    <t>188000000</t>
+  </si>
+  <si>
+    <t>190720000</t>
+  </si>
+  <si>
+    <t>193000000</t>
+  </si>
+  <si>
+    <t>211100000</t>
+  </si>
+  <si>
+    <t>211660000</t>
+  </si>
+  <si>
+    <t>212000000</t>
+  </si>
+  <si>
+    <t>213450000</t>
+  </si>
+  <si>
+    <t>225000000</t>
+  </si>
+  <si>
+    <t>229400000</t>
+  </si>
+  <si>
+    <t>257150000</t>
+  </si>
+  <si>
+    <t>258310000</t>
+  </si>
+  <si>
+    <t>260000000</t>
+  </si>
+  <si>
+    <t>269000000</t>
+  </si>
+  <si>
+    <t>279230000</t>
+  </si>
+  <si>
+    <t>279900000</t>
+  </si>
+  <si>
+    <t>280000000</t>
+  </si>
+  <si>
+    <t>294290000</t>
+  </si>
+  <si>
+    <t>305000000</t>
+  </si>
+  <si>
+    <t>330000000</t>
+  </si>
+  <si>
+    <t>332950000</t>
+  </si>
+  <si>
+    <t>340000000</t>
+  </si>
+  <si>
+    <t>354000000</t>
+  </si>
+  <si>
     <t>369260000</t>
   </si>
   <si>
-    <t>370000000</t>
-  </si>
-  <si>
-    <t>372400000</t>
-  </si>
-  <si>
-    <t>373110000</t>
-  </si>
-  <si>
-    <t>380000000</t>
-  </si>
-  <si>
-    <t>390000000</t>
-  </si>
-  <si>
-    <t>395000000</t>
-  </si>
-  <si>
-    <t>398000000</t>
-  </si>
-  <si>
-    <t>398720000</t>
-  </si>
-  <si>
-    <t>400000000</t>
-  </si>
-  <si>
-    <t>404170000</t>
-  </si>
-  <si>
-    <t>406190000</t>
-  </si>
-  <si>
-    <t>416190000</t>
-  </si>
-  <si>
-    <t>420000000</t>
-  </si>
-  <si>
-    <t>430000000</t>
-  </si>
-  <si>
-    <t>440000000</t>
-  </si>
-  <si>
-    <t>443110000</t>
-  </si>
-  <si>
-    <t>450000000</t>
-  </si>
-  <si>
-    <t>457880000</t>
-  </si>
-  <si>
-    <t>460000000</t>
-  </si>
-  <si>
-    <t>480000000</t>
-  </si>
-  <si>
-    <t>480040000</t>
-  </si>
-  <si>
-    <t>490000000</t>
-  </si>
-  <si>
-    <t>497850000</t>
-  </si>
-  <si>
-    <t>500000000</t>
-  </si>
-  <si>
-    <t>502190000</t>
-  </si>
-  <si>
-    <t>510000000</t>
-  </si>
-  <si>
-    <t>516960000</t>
-  </si>
-  <si>
-    <t>531730000</t>
-  </si>
-  <si>
-    <t>537720000</t>
-  </si>
-  <si>
-    <t>540000000</t>
-  </si>
-  <si>
-    <t>550000000</t>
-  </si>
-  <si>
-    <t>553890000</t>
-  </si>
-  <si>
-    <t>564230000</t>
-  </si>
-  <si>
-    <t>583000000</t>
-  </si>
-  <si>
-    <t>590810000</t>
-  </si>
-  <si>
-    <t>596000000</t>
-  </si>
-  <si>
-    <t>599980000</t>
-  </si>
-  <si>
-    <t>600000000</t>
-  </si>
-  <si>
-    <t>627740000</t>
-  </si>
-  <si>
-    <t>630000000</t>
-  </si>
-  <si>
-    <t>657510000</t>
-  </si>
-  <si>
-    <t>661090000</t>
-  </si>
-  <si>
-    <t>700000000</t>
-  </si>
-  <si>
-    <t>701590000</t>
-  </si>
-  <si>
-    <t>738510000</t>
-  </si>
-  <si>
-    <t>749120000</t>
-  </si>
-  <si>
-    <t>750000000</t>
-  </si>
-  <si>
-    <t>756230000</t>
-  </si>
-  <si>
-    <t>772310000</t>
-  </si>
-  <si>
-    <t>784300000</t>
-  </si>
-  <si>
-    <t>800000000</t>
-  </si>
-  <si>
-    <t>804980000</t>
-  </si>
-  <si>
-    <t>812370000</t>
-  </si>
-  <si>
-    <t>837750000</t>
-  </si>
-  <si>
-    <t>840000000</t>
-  </si>
-  <si>
-    <t>850000000</t>
-  </si>
-  <si>
-    <t>859260000</t>
-  </si>
-  <si>
-    <t>870000000</t>
-  </si>
-  <si>
-    <t>871450000</t>
-  </si>
-  <si>
-    <t>885000000</t>
-  </si>
-  <si>
-    <t>886220000</t>
-  </si>
-  <si>
-    <t>900000000</t>
-  </si>
-  <si>
-    <t>915760000</t>
-  </si>
-  <si>
-    <t>923140000</t>
-  </si>
-  <si>
-    <t>960070000</t>
-  </si>
-  <si>
-    <t>980000000</t>
-  </si>
-  <si>
-    <t>991430000</t>
-  </si>
-  <si>
-    <t>1000000000</t>
-  </si>
-  <si>
-    <t>1041980000</t>
-  </si>
-  <si>
-    <t>1080000000</t>
-  </si>
-  <si>
-    <t>1080310000</t>
-  </si>
-  <si>
-    <t>1085000000</t>
-  </si>
-  <si>
-    <t>1100000000</t>
-  </si>
-  <si>
-    <t>1107770000</t>
-  </si>
-  <si>
-    <t>1108450000</t>
-  </si>
-  <si>
-    <t>1200000000</t>
-  </si>
-  <si>
-    <t>1248570000</t>
-  </si>
-  <si>
-    <t>1255000000</t>
-  </si>
-  <si>
-    <t>1260000000</t>
-  </si>
-  <si>
-    <t>1300000000</t>
-  </si>
-  <si>
-    <t>1390000000</t>
-  </si>
-  <si>
-    <t>1500000000</t>
-  </si>
-  <si>
-    <t>1550880000</t>
-  </si>
-  <si>
-    <t>1699980000</t>
-  </si>
-  <si>
-    <t>1772430000</t>
-  </si>
-  <si>
-    <t>1923600000</t>
-  </si>
-  <si>
-    <t>1963760000</t>
-  </si>
-  <si>
-    <t>2000000000</t>
-  </si>
-  <si>
-    <t>2850000000</t>
-  </si>
-  <si>
-    <t>3000000000</t>
-  </si>
-  <si>
-    <t>3101750000</t>
-  </si>
-  <si>
-    <t>3626140000</t>
-  </si>
-  <si>
-    <t>3864000000</t>
-  </si>
-  <si>
-    <t>4200000000</t>
-  </si>
-  <si>
-    <t>7050000000</t>
-  </si>
-  <si>
-    <t>7385100000</t>
-  </si>
-  <si>
-    <t>33000000</t>
-  </si>
-  <si>
-    <t>39000000</t>
-  </si>
-  <si>
-    <t>51000000</t>
-  </si>
-  <si>
-    <t>56000000</t>
-  </si>
-  <si>
-    <t>57050000</t>
-  </si>
-  <si>
-    <t>62000000</t>
-  </si>
-  <si>
-    <t>65000000</t>
-  </si>
-  <si>
-    <t>66380000</t>
-  </si>
-  <si>
-    <t>66700000</t>
-  </si>
-  <si>
-    <t>75200000</t>
-  </si>
-  <si>
-    <t>82210000</t>
-  </si>
-  <si>
-    <t>83300000</t>
-  </si>
-  <si>
-    <t>88800000</t>
-  </si>
-  <si>
-    <t>89000000</t>
-  </si>
-  <si>
-    <t>92900000</t>
-  </si>
-  <si>
-    <t>93870000</t>
-  </si>
-  <si>
-    <t>95000000</t>
-  </si>
-  <si>
-    <t>98000000</t>
-  </si>
-  <si>
-    <t>108000000</t>
-  </si>
-  <si>
-    <t>109000000</t>
-  </si>
-  <si>
-    <t>122000000</t>
-  </si>
-  <si>
-    <t>127000000</t>
-  </si>
-  <si>
-    <t>132900000</t>
-  </si>
-  <si>
-    <t>149000000</t>
-  </si>
-  <si>
-    <t>149400000</t>
-  </si>
-  <si>
-    <t>155000000</t>
-  </si>
-  <si>
-    <t>157000000</t>
-  </si>
-  <si>
-    <t>157500000</t>
-  </si>
-  <si>
-    <t>162000000</t>
-  </si>
-  <si>
-    <t>177000000</t>
-  </si>
-  <si>
-    <t>179850000</t>
-  </si>
-  <si>
-    <t>184480000</t>
-  </si>
-  <si>
-    <t>184690000</t>
-  </si>
-  <si>
-    <t>185000000</t>
-  </si>
-  <si>
-    <t>188000000</t>
-  </si>
-  <si>
-    <t>190720000</t>
-  </si>
-  <si>
-    <t>193000000</t>
-  </si>
-  <si>
-    <t>211100000</t>
-  </si>
-  <si>
-    <t>211660000</t>
-  </si>
-  <si>
-    <t>212000000</t>
-  </si>
-  <si>
-    <t>213450000</t>
-  </si>
-  <si>
-    <t>225000000</t>
-  </si>
-  <si>
-    <t>229400000</t>
-  </si>
-  <si>
-    <t>257150000</t>
-  </si>
-  <si>
-    <t>258310000</t>
-  </si>
-  <si>
-    <t>260000000</t>
-  </si>
-  <si>
-    <t>269000000</t>
-  </si>
-  <si>
-    <t>279230000</t>
-  </si>
-  <si>
-    <t>279900000</t>
-  </si>
-  <si>
-    <t>280000000</t>
-  </si>
-  <si>
-    <t>305000000</t>
-  </si>
-  <si>
-    <t>330000000</t>
-  </si>
-  <si>
-    <t>332950000</t>
-  </si>
-  <si>
-    <t>340000000</t>
-  </si>
-  <si>
-    <t>354000000</t>
-  </si>
-  <si>
     <t>385000000</t>
   </si>
   <si>
@@ -6397,7 +6418,7 @@
     <t>595000000</t>
   </si>
   <si>
-    <t>614810000</t>
+    <t>612480000</t>
   </si>
   <si>
     <t>623520000</t>
@@ -6412,6 +6433,9 @@
     <t>712000000</t>
   </si>
   <si>
+    <t>735710000</t>
+  </si>
+  <si>
     <t>735900000</t>
   </si>
   <si>
@@ -6430,7 +6454,7 @@
     <t>799040000</t>
   </si>
   <si>
-    <t>832380000</t>
+    <t>831580000</t>
   </si>
   <si>
     <t>882000000</t>
@@ -6484,7 +6508,7 @@
     <t>3323300000</t>
   </si>
   <si>
-    <t>4061810000</t>
+    <t>4046400000</t>
   </si>
   <si>
     <t>6829440000</t>
@@ -6499,7 +6523,7 @@
     <t>175000000</t>
   </si>
   <si>
-    <t>177250000</t>
+    <t>176570000</t>
   </si>
   <si>
     <t>215000000</t>
@@ -6514,6 +6538,9 @@
     <t>478400000</t>
   </si>
   <si>
+    <t>551790000</t>
+  </si>
+  <si>
     <t>582670000</t>
   </si>
   <si>
@@ -6569,6 +6596,9 @@
   </si>
   <si>
     <t>1818600000</t>
+  </si>
+  <si>
+    <t>1839270000</t>
   </si>
 </sst>
 </file>
@@ -8042,7 +8072,7 @@
         <v>1922</v>
       </c>
       <c r="F55">
-        <v>1098988</v>
+        <v>1094821</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8382,7 +8412,7 @@
         <v>1932</v>
       </c>
       <c r="F72">
-        <v>247830</v>
+        <v>246890</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -9750,7 +9780,7 @@
         <v>1965</v>
       </c>
       <c r="F141">
-        <v>268163</v>
+        <v>267146</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -10124,7 +10154,7 @@
         <v>1976</v>
       </c>
       <c r="F160">
-        <v>706417</v>
+        <v>703722</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -10144,7 +10174,7 @@
         <v>1976</v>
       </c>
       <c r="F161">
-        <v>969427</v>
+        <v>965728</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -10284,7 +10314,7 @@
         <v>1981</v>
       </c>
       <c r="F168">
-        <v>631211</v>
+        <v>628818</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -10301,7 +10331,7 @@
         <v>1545</v>
       </c>
       <c r="E169" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="F169">
         <v>356198</v>
@@ -10321,7 +10351,7 @@
         <v>1546</v>
       </c>
       <c r="E170" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="F170">
         <v>1549336</v>
@@ -10341,7 +10371,7 @@
         <v>1547</v>
       </c>
       <c r="E171" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="F171">
         <v>197889</v>
@@ -10361,7 +10391,7 @@
         <v>1548</v>
       </c>
       <c r="E172" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="F172">
         <v>265487</v>
@@ -10381,7 +10411,7 @@
         <v>1549</v>
       </c>
       <c r="E173" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="F173">
         <v>293734</v>
@@ -10401,7 +10431,7 @@
         <v>1550</v>
       </c>
       <c r="E174" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="F174">
         <v>308430</v>
@@ -10421,7 +10451,7 @@
         <v>1551</v>
       </c>
       <c r="E175" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="F175">
         <v>388937</v>
@@ -10441,7 +10471,7 @@
         <v>1552</v>
       </c>
       <c r="E176" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="F176">
         <v>236469</v>
@@ -10461,7 +10491,7 @@
         <v>1528</v>
       </c>
       <c r="E177" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="F177">
         <v>1081731</v>
@@ -10481,7 +10511,7 @@
         <v>1553</v>
       </c>
       <c r="E178" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="F178">
         <v>371594</v>
@@ -10501,7 +10531,7 @@
         <v>1554</v>
       </c>
       <c r="E179" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="F179">
         <v>1338830</v>
@@ -10521,7 +10551,7 @@
         <v>1555</v>
       </c>
       <c r="E180" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="F180">
         <v>353846</v>
@@ -10535,16 +10565,16 @@
         <v>766</v>
       </c>
       <c r="C181" t="s">
-        <v>1259</v>
+        <v>1169</v>
       </c>
       <c r="D181" t="s">
         <v>1556</v>
       </c>
       <c r="E181" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="F181">
-        <v>287770</v>
+        <v>807804</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -10555,16 +10585,16 @@
         <v>767</v>
       </c>
       <c r="C182" t="s">
-        <v>1169</v>
+        <v>1259</v>
       </c>
       <c r="D182" t="s">
         <v>1557</v>
       </c>
       <c r="E182" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="F182">
-        <v>810878</v>
+        <v>287770</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -10581,7 +10611,7 @@
         <v>1558</v>
       </c>
       <c r="E183" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="F183">
         <v>138418</v>
@@ -10601,7 +10631,7 @@
         <v>1559</v>
       </c>
       <c r="E184" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="F184">
         <v>325605</v>
@@ -10621,7 +10651,7 @@
         <v>1560</v>
       </c>
       <c r="E185" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="F185">
         <v>465549</v>
@@ -10641,7 +10671,7 @@
         <v>1561</v>
       </c>
       <c r="E186" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="F186">
         <v>1237624</v>
@@ -10661,7 +10691,7 @@
         <v>1562</v>
       </c>
       <c r="E187" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="F187">
         <v>729927</v>
@@ -10681,7 +10711,7 @@
         <v>1563</v>
       </c>
       <c r="E188" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="F188">
         <v>298151</v>
@@ -10701,7 +10731,7 @@
         <v>1564</v>
       </c>
       <c r="E189" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="F189">
         <v>499500</v>
@@ -10721,7 +10751,7 @@
         <v>1565</v>
       </c>
       <c r="E190" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="F190">
         <v>359712</v>
@@ -10741,7 +10771,7 @@
         <v>1566</v>
       </c>
       <c r="E191" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="F191">
         <v>517063</v>
@@ -10761,7 +10791,7 @@
         <v>1567</v>
       </c>
       <c r="E192" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="F192">
         <v>418492</v>
@@ -10781,7 +10811,7 @@
         <v>1568</v>
       </c>
       <c r="E193" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="F193">
         <v>150843</v>
@@ -10801,10 +10831,10 @@
         <v>1569</v>
       </c>
       <c r="E194" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="F194">
-        <v>488620</v>
+        <v>486767</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -10821,10 +10851,10 @@
         <v>1570</v>
       </c>
       <c r="E195" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="F195">
-        <v>3282284</v>
+        <v>3269815</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -10841,7 +10871,7 @@
         <v>1418</v>
       </c>
       <c r="E196" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="F196">
         <v>1415053</v>
@@ -10861,7 +10891,7 @@
         <v>1571</v>
       </c>
       <c r="E197" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="F197">
         <v>458794</v>
@@ -10881,7 +10911,7 @@
         <v>1572</v>
       </c>
       <c r="E198" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="F198">
         <v>270936</v>
@@ -10901,7 +10931,7 @@
         <v>1573</v>
       </c>
       <c r="E199" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="F199">
         <v>213592</v>
@@ -10921,7 +10951,7 @@
         <v>1466</v>
       </c>
       <c r="E200" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="F200">
         <v>348322</v>
@@ -10941,7 +10971,7 @@
         <v>1574</v>
       </c>
       <c r="E201" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="F201">
         <v>238095</v>
@@ -10961,7 +10991,7 @@
         <v>1575</v>
       </c>
       <c r="E202" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="F202">
         <v>334677</v>
@@ -10981,7 +11011,7 @@
         <v>1576</v>
       </c>
       <c r="E203" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="F203">
         <v>605397</v>
@@ -11001,7 +11031,7 @@
         <v>1577</v>
       </c>
       <c r="E204" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="F204">
         <v>227290</v>
@@ -11021,10 +11051,10 @@
         <v>1578</v>
       </c>
       <c r="E205" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="F205">
-        <v>772301</v>
+        <v>769373</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -11041,7 +11071,7 @@
         <v>1579</v>
       </c>
       <c r="E206" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="F206">
         <v>381807</v>
@@ -11061,10 +11091,10 @@
         <v>1485</v>
       </c>
       <c r="E207" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="F207">
-        <v>1415047</v>
+        <v>1413679</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -11081,7 +11111,7 @@
         <v>1580</v>
       </c>
       <c r="E208" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="F208">
         <v>511945</v>
@@ -11101,7 +11131,7 @@
         <v>1581</v>
       </c>
       <c r="E209" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="F209">
         <v>142857</v>
@@ -11121,7 +11151,7 @@
         <v>1582</v>
       </c>
       <c r="E210" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="F210">
         <v>117878</v>
@@ -11141,7 +11171,7 @@
         <v>1583</v>
       </c>
       <c r="E211" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="F211">
         <v>147420</v>
@@ -11161,7 +11191,7 @@
         <v>1584</v>
       </c>
       <c r="E212" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="F212">
         <v>536673</v>
@@ -11175,16 +11205,16 @@
         <v>798</v>
       </c>
       <c r="C213" t="s">
-        <v>1261</v>
+        <v>1213</v>
       </c>
       <c r="D213" t="s">
-        <v>1585</v>
+        <v>1567</v>
       </c>
       <c r="E213" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="F213">
-        <v>506651</v>
+        <v>521133</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -11195,16 +11225,16 @@
         <v>799</v>
       </c>
       <c r="C214" t="s">
-        <v>1213</v>
+        <v>1261</v>
       </c>
       <c r="D214" t="s">
-        <v>1567</v>
+        <v>1585</v>
       </c>
       <c r="E214" t="s">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="F214">
-        <v>523117</v>
+        <v>506651</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -11221,7 +11251,7 @@
         <v>1586</v>
       </c>
       <c r="E215" t="s">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="F215">
         <v>450000</v>
@@ -11241,7 +11271,7 @@
         <v>1587</v>
       </c>
       <c r="E216" t="s">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="F216">
         <v>310000</v>
@@ -11275,7 +11305,7 @@
         <v>1588</v>
       </c>
       <c r="E218" t="s">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="F218">
         <v>729680</v>
@@ -11295,7 +11325,7 @@
         <v>1589</v>
       </c>
       <c r="E219" t="s">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="F219">
         <v>494350</v>
@@ -11315,7 +11345,7 @@
         <v>1590</v>
       </c>
       <c r="E220" t="s">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="F220">
         <v>145833</v>
@@ -11335,7 +11365,7 @@
         <v>1591</v>
       </c>
       <c r="E221" t="s">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="F221">
         <v>362882</v>
@@ -11355,7 +11385,7 @@
         <v>1592</v>
       </c>
       <c r="E222" t="s">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="F222">
         <v>645161</v>
@@ -11375,7 +11405,7 @@
         <v>1593</v>
       </c>
       <c r="E223" t="s">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="F223">
         <v>140845</v>
@@ -11395,7 +11425,7 @@
         <v>1594</v>
       </c>
       <c r="E224" t="s">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F224">
         <v>649620</v>
@@ -11415,7 +11445,7 @@
         <v>1595</v>
       </c>
       <c r="E225" t="s">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="F225">
         <v>100752</v>
@@ -11435,7 +11465,7 @@
         <v>1596</v>
       </c>
       <c r="E226" t="s">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="F226">
         <v>280376</v>
@@ -11469,7 +11499,7 @@
         <v>1598</v>
       </c>
       <c r="E228" t="s">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="F228">
         <v>495122</v>
@@ -11489,7 +11519,7 @@
         <v>1599</v>
       </c>
       <c r="E229" t="s">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="F229">
         <v>56870</v>
@@ -11509,7 +11539,7 @@
         <v>1600</v>
       </c>
       <c r="E230" t="s">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="F230">
         <v>472292</v>
@@ -11529,7 +11559,7 @@
         <v>1601</v>
       </c>
       <c r="E231" t="s">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="F231">
         <v>1120341</v>
@@ -11549,7 +11579,7 @@
         <v>1602</v>
       </c>
       <c r="E232" t="s">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="F232">
         <v>329765</v>
@@ -11569,7 +11599,7 @@
         <v>1603</v>
       </c>
       <c r="E233" t="s">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="F233">
         <v>1150000</v>
@@ -11589,7 +11619,7 @@
         <v>1604</v>
       </c>
       <c r="E234" t="s">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="F234">
         <v>538721</v>
@@ -11609,7 +11639,7 @@
         <v>1605</v>
       </c>
       <c r="E235" t="s">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="F235">
         <v>828157</v>
@@ -11629,10 +11659,10 @@
         <v>1606</v>
       </c>
       <c r="E236" t="s">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="F236">
-        <v>607532</v>
+        <v>605230</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -11649,10 +11679,10 @@
         <v>1607</v>
       </c>
       <c r="E237" t="s">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F237">
-        <v>484997</v>
+        <v>483152</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -11669,10 +11699,10 @@
         <v>1608</v>
       </c>
       <c r="E238" t="s">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F238">
-        <v>706409</v>
+        <v>703722</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -11689,7 +11719,7 @@
         <v>1609</v>
       </c>
       <c r="E239" t="s">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="F239">
         <v>250000</v>
@@ -11709,7 +11739,7 @@
         <v>1610</v>
       </c>
       <c r="E240" t="s">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F240">
         <v>207921</v>
@@ -11729,7 +11759,7 @@
         <v>1611</v>
       </c>
       <c r="E241" t="s">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="F241">
         <v>428212</v>
@@ -11749,7 +11779,7 @@
         <v>1612</v>
       </c>
       <c r="E242" t="s">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="F242">
         <v>263484</v>
@@ -11769,7 +11799,7 @@
         <v>1613</v>
       </c>
       <c r="E243" t="s">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="F243">
         <v>480034</v>
@@ -11789,10 +11819,10 @@
         <v>1614</v>
       </c>
       <c r="E244" t="s">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="F244">
-        <v>904366</v>
+        <v>1592917</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -11809,10 +11839,10 @@
         <v>1615</v>
       </c>
       <c r="E245" t="s">
-        <v>2024</v>
+        <v>2026</v>
       </c>
       <c r="F245">
-        <v>1598991</v>
+        <v>904366</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -11837,16 +11867,16 @@
         <v>832</v>
       </c>
       <c r="C247" t="s">
-        <v>1310</v>
+        <v>1169</v>
       </c>
       <c r="D247" t="s">
         <v>1617</v>
       </c>
       <c r="E247" t="s">
-        <v>2025</v>
+        <v>2027</v>
       </c>
       <c r="F247">
-        <v>240098</v>
+        <v>627470</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -11857,16 +11887,16 @@
         <v>833</v>
       </c>
       <c r="C248" t="s">
-        <v>1169</v>
+        <v>1310</v>
       </c>
       <c r="D248" t="s">
         <v>1618</v>
       </c>
       <c r="E248" t="s">
-        <v>2026</v>
+        <v>2028</v>
       </c>
       <c r="F248">
-        <v>629865</v>
+        <v>240098</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -11883,7 +11913,7 @@
         <v>1619</v>
       </c>
       <c r="E249" t="s">
-        <v>2026</v>
+        <v>2029</v>
       </c>
       <c r="F249">
         <v>298089</v>
@@ -11903,7 +11933,7 @@
         <v>1620</v>
       </c>
       <c r="E250" t="s">
-        <v>2026</v>
+        <v>2029</v>
       </c>
       <c r="F250">
         <v>492344</v>
@@ -11923,7 +11953,7 @@
         <v>1621</v>
       </c>
       <c r="E251" t="s">
-        <v>2027</v>
+        <v>2030</v>
       </c>
       <c r="F251">
         <v>238790</v>
@@ -11943,7 +11973,7 @@
         <v>1622</v>
       </c>
       <c r="E252" t="s">
-        <v>2028</v>
+        <v>2031</v>
       </c>
       <c r="F252">
         <v>369258</v>
@@ -11963,7 +11993,7 @@
         <v>1623</v>
       </c>
       <c r="E253" t="s">
-        <v>2029</v>
+        <v>2032</v>
       </c>
       <c r="F253">
         <v>235015</v>
@@ -12011,10 +12041,10 @@
         <v>1626</v>
       </c>
       <c r="E256" t="s">
-        <v>2030</v>
+        <v>2033</v>
       </c>
       <c r="F256">
-        <v>654444</v>
+        <v>651963</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -12031,7 +12061,7 @@
         <v>1627</v>
       </c>
       <c r="E257" t="s">
-        <v>2031</v>
+        <v>2034</v>
       </c>
       <c r="F257">
         <v>561605</v>
@@ -12051,7 +12081,7 @@
         <v>1628</v>
       </c>
       <c r="E258" t="s">
-        <v>2031</v>
+        <v>2034</v>
       </c>
       <c r="F258">
         <v>542936</v>
@@ -12071,7 +12101,7 @@
         <v>1629</v>
       </c>
       <c r="E259" t="s">
-        <v>2032</v>
+        <v>2035</v>
       </c>
       <c r="F259">
         <v>468983</v>
@@ -12091,7 +12121,7 @@
         <v>1630</v>
       </c>
       <c r="E260" t="s">
-        <v>2033</v>
+        <v>2036</v>
       </c>
       <c r="F260">
         <v>617665</v>
@@ -12111,7 +12141,7 @@
         <v>1631</v>
       </c>
       <c r="E261" t="s">
-        <v>2034</v>
+        <v>2037</v>
       </c>
       <c r="F261">
         <v>450099</v>
@@ -12131,7 +12161,7 @@
         <v>1632</v>
       </c>
       <c r="E262" t="s">
-        <v>2035</v>
+        <v>2038</v>
       </c>
       <c r="F262">
         <v>594386</v>
@@ -12151,7 +12181,7 @@
         <v>1633</v>
       </c>
       <c r="E263" t="s">
-        <v>2036</v>
+        <v>2039</v>
       </c>
       <c r="F263">
         <v>1629427</v>
@@ -12171,7 +12201,7 @@
         <v>1634</v>
       </c>
       <c r="E264" t="s">
-        <v>2037</v>
+        <v>2040</v>
       </c>
       <c r="F264">
         <v>255655</v>
@@ -12191,7 +12221,7 @@
         <v>1635</v>
       </c>
       <c r="E265" t="s">
-        <v>2038</v>
+        <v>2041</v>
       </c>
       <c r="F265">
         <v>183854</v>
@@ -12211,10 +12241,10 @@
         <v>1636</v>
       </c>
       <c r="E266" t="s">
-        <v>2039</v>
+        <v>2042</v>
       </c>
       <c r="F266">
-        <v>904302</v>
+        <v>900873</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -12225,16 +12255,16 @@
         <v>852</v>
       </c>
       <c r="C267" t="s">
-        <v>1320</v>
+        <v>1269</v>
       </c>
       <c r="D267" t="s">
         <v>1637</v>
       </c>
       <c r="E267" t="s">
-        <v>2039</v>
+        <v>2042</v>
       </c>
       <c r="F267">
-        <v>433739</v>
+        <v>791090</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -12245,16 +12275,16 @@
         <v>853</v>
       </c>
       <c r="C268" t="s">
-        <v>1269</v>
+        <v>1169</v>
       </c>
       <c r="D268" t="s">
         <v>1638</v>
       </c>
       <c r="E268" t="s">
-        <v>2039</v>
+        <v>2042</v>
       </c>
       <c r="F268">
-        <v>794100</v>
+        <v>2039871</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -12265,16 +12295,16 @@
         <v>854</v>
       </c>
       <c r="C269" t="s">
-        <v>1169</v>
+        <v>1320</v>
       </c>
       <c r="D269" t="s">
         <v>1639</v>
       </c>
       <c r="E269" t="s">
-        <v>2039</v>
+        <v>2043</v>
       </c>
       <c r="F269">
-        <v>2047634</v>
+        <v>433739</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -12291,7 +12321,7 @@
         <v>1640</v>
       </c>
       <c r="E270" t="s">
-        <v>2040</v>
+        <v>2044</v>
       </c>
       <c r="F270">
         <v>350000</v>
@@ -12311,7 +12341,7 @@
         <v>1641</v>
       </c>
       <c r="E271" t="s">
-        <v>2041</v>
+        <v>2045</v>
       </c>
       <c r="F271">
         <v>644468</v>
@@ -12331,7 +12361,7 @@
         <v>1642</v>
       </c>
       <c r="E272" t="s">
-        <v>2041</v>
+        <v>2045</v>
       </c>
       <c r="F272">
         <v>701344</v>
@@ -12365,7 +12395,7 @@
         <v>1643</v>
       </c>
       <c r="E274" t="s">
-        <v>2041</v>
+        <v>2045</v>
       </c>
       <c r="F274">
         <v>238284</v>
@@ -12385,10 +12415,10 @@
         <v>1481</v>
       </c>
       <c r="E275" t="s">
-        <v>2042</v>
+        <v>2046</v>
       </c>
       <c r="F275">
-        <v>2080950</v>
+        <v>2078933</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -12405,7 +12435,7 @@
         <v>1644</v>
       </c>
       <c r="E276" t="s">
-        <v>2043</v>
+        <v>2047</v>
       </c>
       <c r="F276">
         <v>401600</v>
@@ -12425,7 +12455,7 @@
         <v>1645</v>
       </c>
       <c r="E277" t="s">
-        <v>2044</v>
+        <v>2048</v>
       </c>
       <c r="F277">
         <v>192837</v>
@@ -12445,7 +12475,7 @@
         <v>1646</v>
       </c>
       <c r="E278" t="s">
-        <v>2045</v>
+        <v>2049</v>
       </c>
       <c r="F278">
         <v>167959</v>
@@ -12465,7 +12495,7 @@
         <v>1647</v>
       </c>
       <c r="E279" t="s">
-        <v>2045</v>
+        <v>2049</v>
       </c>
       <c r="F279">
         <v>281020</v>
@@ -12485,7 +12515,7 @@
         <v>1648</v>
       </c>
       <c r="E280" t="s">
-        <v>2045</v>
+        <v>2049</v>
       </c>
       <c r="F280">
         <v>611765</v>
@@ -12505,7 +12535,7 @@
         <v>1649</v>
       </c>
       <c r="E281" t="s">
-        <v>2046</v>
+        <v>2050</v>
       </c>
       <c r="F281">
         <v>273622</v>
@@ -12553,7 +12583,7 @@
         <v>1651</v>
       </c>
       <c r="E284" t="s">
-        <v>2047</v>
+        <v>2051</v>
       </c>
       <c r="F284">
         <v>322581</v>
@@ -12573,7 +12603,7 @@
         <v>1652</v>
       </c>
       <c r="E285" t="s">
-        <v>2047</v>
+        <v>2051</v>
       </c>
       <c r="F285">
         <v>3112033</v>
@@ -12593,10 +12623,10 @@
         <v>1653</v>
       </c>
       <c r="E286" t="s">
-        <v>2048</v>
+        <v>2052</v>
       </c>
       <c r="F286">
-        <v>2779355</v>
+        <v>2768799</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -12613,7 +12643,7 @@
         <v>1654</v>
       </c>
       <c r="E287" t="s">
-        <v>2049</v>
+        <v>2053</v>
       </c>
       <c r="F287">
         <v>641502</v>
@@ -12633,7 +12663,7 @@
         <v>1655</v>
       </c>
       <c r="E288" t="s">
-        <v>2050</v>
+        <v>2054</v>
       </c>
       <c r="F288">
         <v>1061335</v>
@@ -12653,7 +12683,7 @@
         <v>1656</v>
       </c>
       <c r="E289" t="s">
-        <v>2051</v>
+        <v>2055</v>
       </c>
       <c r="F289">
         <v>350000</v>
@@ -12673,7 +12703,7 @@
         <v>1657</v>
       </c>
       <c r="E290" t="s">
-        <v>2052</v>
+        <v>2056</v>
       </c>
       <c r="F290">
         <v>1059773</v>
@@ -12693,7 +12723,7 @@
         <v>1658</v>
       </c>
       <c r="E291" t="s">
-        <v>2053</v>
+        <v>2057</v>
       </c>
       <c r="F291">
         <v>318979</v>
@@ -12741,7 +12771,7 @@
         <v>1661</v>
       </c>
       <c r="E294" t="s">
-        <v>2054</v>
+        <v>2058</v>
       </c>
       <c r="F294">
         <v>323864</v>
@@ -12761,7 +12791,7 @@
         <v>1662</v>
       </c>
       <c r="E295" t="s">
-        <v>2055</v>
+        <v>2059</v>
       </c>
       <c r="F295">
         <v>253507</v>
@@ -12781,10 +12811,10 @@
         <v>1663</v>
       </c>
       <c r="E296" t="s">
-        <v>2056</v>
+        <v>2060</v>
       </c>
       <c r="F296">
-        <v>624597</v>
+        <v>622227</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -12829,7 +12859,7 @@
         <v>1666</v>
       </c>
       <c r="E299" t="s">
-        <v>2057</v>
+        <v>2061</v>
       </c>
       <c r="F299">
         <v>295000</v>
@@ -12849,7 +12879,7 @@
         <v>1667</v>
       </c>
       <c r="E300" t="s">
-        <v>2058</v>
+        <v>2062</v>
       </c>
       <c r="F300">
         <v>138000</v>
@@ -12869,7 +12899,7 @@
         <v>1668</v>
       </c>
       <c r="E301" t="s">
-        <v>2059</v>
+        <v>2063</v>
       </c>
       <c r="F301">
         <v>300817</v>
@@ -12917,7 +12947,7 @@
         <v>1671</v>
       </c>
       <c r="E304" t="s">
-        <v>2060</v>
+        <v>2064</v>
       </c>
       <c r="F304">
         <v>300000</v>
@@ -12937,7 +12967,7 @@
         <v>1567</v>
       </c>
       <c r="E305" t="s">
-        <v>2061</v>
+        <v>2065</v>
       </c>
       <c r="F305">
         <v>6154250</v>
@@ -12985,7 +13015,7 @@
         <v>1501</v>
       </c>
       <c r="E308" t="s">
-        <v>2062</v>
+        <v>2066</v>
       </c>
       <c r="F308">
         <v>68750</v>
@@ -13005,7 +13035,7 @@
         <v>1674</v>
       </c>
       <c r="E309" t="s">
-        <v>2063</v>
+        <v>2067</v>
       </c>
       <c r="F309">
         <v>236364</v>
@@ -13025,7 +13055,7 @@
         <v>1675</v>
       </c>
       <c r="E310" t="s">
-        <v>2064</v>
+        <v>2068</v>
       </c>
       <c r="F310">
         <v>96408</v>
@@ -13045,7 +13075,7 @@
         <v>1676</v>
       </c>
       <c r="E311" t="s">
-        <v>2065</v>
+        <v>2069</v>
       </c>
       <c r="F311">
         <v>560000</v>
@@ -13065,7 +13095,7 @@
         <v>1677</v>
       </c>
       <c r="E312" t="s">
-        <v>2066</v>
+        <v>2070</v>
       </c>
       <c r="F312">
         <v>350000</v>
@@ -13125,7 +13155,7 @@
         <v>1678</v>
       </c>
       <c r="E315" t="s">
-        <v>2067</v>
+        <v>2071</v>
       </c>
       <c r="F315">
         <v>206667</v>
@@ -13145,7 +13175,7 @@
         <v>1679</v>
       </c>
       <c r="E316" t="s">
-        <v>2068</v>
+        <v>2072</v>
       </c>
       <c r="F316">
         <v>58559</v>
@@ -13165,7 +13195,7 @@
         <v>1680</v>
       </c>
       <c r="E317" t="s">
-        <v>2069</v>
+        <v>2073</v>
       </c>
       <c r="F317">
         <v>433856</v>
@@ -13185,7 +13215,7 @@
         <v>1681</v>
       </c>
       <c r="E318" t="s">
-        <v>2070</v>
+        <v>2074</v>
       </c>
       <c r="F318">
         <v>200300</v>
@@ -13245,7 +13275,7 @@
         <v>1402</v>
       </c>
       <c r="E321" t="s">
-        <v>2071</v>
+        <v>2075</v>
       </c>
       <c r="F321">
         <v>306939</v>
@@ -13285,7 +13315,7 @@
         <v>1685</v>
       </c>
       <c r="E323" t="s">
-        <v>2072</v>
+        <v>2076</v>
       </c>
       <c r="F323">
         <v>334187</v>
@@ -13305,7 +13335,7 @@
         <v>1686</v>
       </c>
       <c r="E324" t="s">
-        <v>2073</v>
+        <v>2077</v>
       </c>
       <c r="F324">
         <v>334538</v>
@@ -13325,7 +13355,7 @@
         <v>1687</v>
       </c>
       <c r="E325" t="s">
-        <v>2074</v>
+        <v>2078</v>
       </c>
       <c r="F325">
         <v>485246</v>
@@ -13345,7 +13375,7 @@
         <v>1688</v>
       </c>
       <c r="E326" t="s">
-        <v>2075</v>
+        <v>2079</v>
       </c>
       <c r="F326">
         <v>237968</v>
@@ -13365,7 +13395,7 @@
         <v>1689</v>
       </c>
       <c r="E327" t="s">
-        <v>2076</v>
+        <v>2080</v>
       </c>
       <c r="F327">
         <v>97687</v>
@@ -13385,7 +13415,7 @@
         <v>1690</v>
       </c>
       <c r="E328" t="s">
-        <v>2077</v>
+        <v>2081</v>
       </c>
       <c r="F328">
         <v>143752</v>
@@ -13405,7 +13435,7 @@
         <v>1691</v>
       </c>
       <c r="E329" t="s">
-        <v>2078</v>
+        <v>2082</v>
       </c>
       <c r="F329">
         <v>212528</v>
@@ -13425,7 +13455,7 @@
         <v>1692</v>
       </c>
       <c r="E330" t="s">
-        <v>2079</v>
+        <v>2083</v>
       </c>
       <c r="F330">
         <v>125000</v>
@@ -13505,7 +13535,7 @@
         <v>1696</v>
       </c>
       <c r="E334" t="s">
-        <v>2080</v>
+        <v>2084</v>
       </c>
       <c r="F334">
         <v>514286</v>
@@ -13525,7 +13555,7 @@
         <v>1697</v>
       </c>
       <c r="E335" t="s">
-        <v>2081</v>
+        <v>2085</v>
       </c>
       <c r="F335">
         <v>43600</v>
@@ -13725,7 +13755,7 @@
         <v>1704</v>
       </c>
       <c r="E345" t="s">
-        <v>2082</v>
+        <v>2086</v>
       </c>
       <c r="F345">
         <v>64721</v>
@@ -13745,7 +13775,7 @@
         <v>1705</v>
       </c>
       <c r="E346" t="s">
-        <v>2083</v>
+        <v>2087</v>
       </c>
       <c r="F346">
         <v>224779</v>
@@ -13785,7 +13815,7 @@
         <v>1707</v>
       </c>
       <c r="E348" t="s">
-        <v>2084</v>
+        <v>2088</v>
       </c>
       <c r="F348">
         <v>125141</v>
@@ -13905,10 +13935,10 @@
         <v>1712</v>
       </c>
       <c r="E354" t="s">
-        <v>1912</v>
+        <v>2089</v>
       </c>
       <c r="F354">
-        <v>317656</v>
+        <v>316452</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -13925,7 +13955,7 @@
         <v>1713</v>
       </c>
       <c r="E355" t="s">
-        <v>2085</v>
+        <v>2090</v>
       </c>
       <c r="F355">
         <v>22672</v>
@@ -13945,7 +13975,7 @@
         <v>1714</v>
       </c>
       <c r="E356" t="s">
-        <v>2086</v>
+        <v>2091</v>
       </c>
       <c r="F356">
         <v>590514</v>
@@ -14025,7 +14055,7 @@
         <v>1718</v>
       </c>
       <c r="E360" t="s">
-        <v>2087</v>
+        <v>2092</v>
       </c>
       <c r="F360">
         <v>69507</v>
@@ -14065,7 +14095,7 @@
         <v>1474</v>
       </c>
       <c r="E362" t="s">
-        <v>2088</v>
+        <v>2093</v>
       </c>
       <c r="F362">
         <v>267918</v>
@@ -14085,7 +14115,7 @@
         <v>1719</v>
       </c>
       <c r="E363" t="s">
-        <v>2089</v>
+        <v>2094</v>
       </c>
       <c r="F363">
         <v>39375</v>
@@ -14145,7 +14175,7 @@
         <v>1722</v>
       </c>
       <c r="E366" t="s">
-        <v>2090</v>
+        <v>2095</v>
       </c>
       <c r="F366">
         <v>435484</v>
@@ -14205,7 +14235,7 @@
         <v>1725</v>
       </c>
       <c r="E369" t="s">
-        <v>2091</v>
+        <v>2096</v>
       </c>
       <c r="F369">
         <v>129861</v>
@@ -14225,7 +14255,7 @@
         <v>1726</v>
       </c>
       <c r="E370" t="s">
-        <v>2092</v>
+        <v>2097</v>
       </c>
       <c r="F370">
         <v>758861</v>
@@ -14279,16 +14309,16 @@
         <v>958</v>
       </c>
       <c r="C373" t="s">
-        <v>1226</v>
+        <v>1340</v>
       </c>
       <c r="D373" t="s">
-        <v>1465</v>
+        <v>1728</v>
       </c>
       <c r="E373" t="s">
-        <v>2093</v>
+        <v>1922</v>
       </c>
       <c r="F373">
-        <v>1024889</v>
+        <v>165554</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -14299,16 +14329,16 @@
         <v>959</v>
       </c>
       <c r="C374" t="s">
-        <v>1340</v>
+        <v>1226</v>
       </c>
       <c r="D374" t="s">
-        <v>1728</v>
+        <v>1465</v>
       </c>
       <c r="E374" t="s">
-        <v>1922</v>
+        <v>2098</v>
       </c>
       <c r="F374">
-        <v>166184</v>
+        <v>1024889</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -14325,7 +14355,7 @@
         <v>1729</v>
       </c>
       <c r="E375" t="s">
-        <v>2094</v>
+        <v>2099</v>
       </c>
       <c r="F375">
         <v>564801</v>
@@ -14345,7 +14375,7 @@
         <v>1730</v>
       </c>
       <c r="E376" t="s">
-        <v>2095</v>
+        <v>2100</v>
       </c>
       <c r="F376">
         <v>120130</v>
@@ -14365,7 +14395,7 @@
         <v>1451</v>
       </c>
       <c r="E377" t="s">
-        <v>2096</v>
+        <v>2101</v>
       </c>
       <c r="F377">
         <v>202368</v>
@@ -14385,7 +14415,7 @@
         <v>1731</v>
       </c>
       <c r="E378" t="s">
-        <v>2097</v>
+        <v>2102</v>
       </c>
       <c r="F378">
         <v>276406</v>
@@ -14405,7 +14435,7 @@
         <v>1474</v>
       </c>
       <c r="E379" t="s">
-        <v>2098</v>
+        <v>2103</v>
       </c>
       <c r="F379">
         <v>329352</v>
@@ -14422,7 +14452,7 @@
         <v>1354</v>
       </c>
       <c r="D380" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="E380" t="s">
         <v>1925</v>
@@ -14593,7 +14623,7 @@
         <v>1737</v>
       </c>
       <c r="E389" t="s">
-        <v>2099</v>
+        <v>2104</v>
       </c>
       <c r="F389">
         <v>76652</v>
@@ -14613,7 +14643,7 @@
         <v>1738</v>
       </c>
       <c r="E390" t="s">
-        <v>2100</v>
+        <v>2105</v>
       </c>
       <c r="F390">
         <v>190000</v>
@@ -14633,7 +14663,7 @@
         <v>1739</v>
       </c>
       <c r="E391" t="s">
-        <v>2101</v>
+        <v>2106</v>
       </c>
       <c r="F391">
         <v>650307</v>
@@ -14653,7 +14683,7 @@
         <v>1678</v>
       </c>
       <c r="E392" t="s">
-        <v>2102</v>
+        <v>2107</v>
       </c>
       <c r="F392">
         <v>711500</v>
@@ -14693,7 +14723,7 @@
         <v>1741</v>
       </c>
       <c r="E394" t="s">
-        <v>2103</v>
+        <v>2108</v>
       </c>
       <c r="F394">
         <v>218447</v>
@@ -14713,7 +14743,7 @@
         <v>1742</v>
       </c>
       <c r="E395" t="s">
-        <v>2104</v>
+        <v>2109</v>
       </c>
       <c r="F395">
         <v>200000</v>
@@ -14913,7 +14943,7 @@
         <v>1749</v>
       </c>
       <c r="E405" t="s">
-        <v>2105</v>
+        <v>2110</v>
       </c>
       <c r="F405">
         <v>702596</v>
@@ -14933,7 +14963,7 @@
         <v>1750</v>
       </c>
       <c r="E406" t="s">
-        <v>2106</v>
+        <v>2111</v>
       </c>
       <c r="F406">
         <v>170389</v>
@@ -14953,7 +14983,7 @@
         <v>1751</v>
       </c>
       <c r="E407" t="s">
-        <v>2107</v>
+        <v>2112</v>
       </c>
       <c r="F407">
         <v>249760</v>
@@ -14973,7 +15003,7 @@
         <v>1752</v>
       </c>
       <c r="E408" t="s">
-        <v>2108</v>
+        <v>2113</v>
       </c>
       <c r="F408">
         <v>190106</v>
@@ -15033,7 +15063,7 @@
         <v>1755</v>
       </c>
       <c r="E411" t="s">
-        <v>2109</v>
+        <v>2114</v>
       </c>
       <c r="F411">
         <v>1073962</v>
@@ -15053,7 +15083,7 @@
         <v>1756</v>
       </c>
       <c r="E412" t="s">
-        <v>2110</v>
+        <v>2115</v>
       </c>
       <c r="F412">
         <v>331243</v>
@@ -15073,7 +15103,7 @@
         <v>1757</v>
       </c>
       <c r="E413" t="s">
-        <v>2111</v>
+        <v>2116</v>
       </c>
       <c r="F413">
         <v>281407</v>
@@ -15113,10 +15143,10 @@
         <v>1514</v>
       </c>
       <c r="E415" t="s">
-        <v>1948</v>
+        <v>2117</v>
       </c>
       <c r="F415">
-        <v>656467</v>
+        <v>653978</v>
       </c>
     </row>
     <row r="416" spans="1:6">
@@ -15187,7 +15217,7 @@
         <v>1762</v>
       </c>
       <c r="E419" t="s">
-        <v>2112</v>
+        <v>2118</v>
       </c>
       <c r="F419">
         <v>137449</v>
@@ -15221,7 +15251,7 @@
         <v>1436</v>
       </c>
       <c r="E421" t="s">
-        <v>2113</v>
+        <v>2119</v>
       </c>
       <c r="F421">
         <v>448980</v>
@@ -15241,7 +15271,7 @@
         <v>1525</v>
       </c>
       <c r="E422" t="s">
-        <v>2114</v>
+        <v>2120</v>
       </c>
       <c r="F422">
         <v>332950</v>
@@ -15261,7 +15291,7 @@
         <v>1764</v>
       </c>
       <c r="E423" t="s">
-        <v>2115</v>
+        <v>2121</v>
       </c>
       <c r="F423">
         <v>88496</v>
@@ -15381,7 +15411,7 @@
         <v>1769</v>
       </c>
       <c r="E429" t="s">
-        <v>2116</v>
+        <v>2122</v>
       </c>
       <c r="F429">
         <v>107273</v>
@@ -15401,7 +15431,7 @@
         <v>1770</v>
       </c>
       <c r="E430" t="s">
-        <v>1965</v>
+        <v>2123</v>
       </c>
       <c r="F430">
         <v>451971</v>
@@ -15441,7 +15471,7 @@
         <v>1772</v>
       </c>
       <c r="E432" t="s">
-        <v>2117</v>
+        <v>2124</v>
       </c>
       <c r="F432">
         <v>201571</v>
@@ -15461,7 +15491,7 @@
         <v>1403</v>
       </c>
       <c r="E433" t="s">
-        <v>2118</v>
+        <v>2125</v>
       </c>
       <c r="F433">
         <v>510605</v>
@@ -15581,7 +15611,7 @@
         <v>1777</v>
       </c>
       <c r="E439" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="F439">
         <v>360288</v>
@@ -15601,7 +15631,7 @@
         <v>1778</v>
       </c>
       <c r="E440" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="F440">
         <v>810811</v>
@@ -15621,7 +15651,7 @@
         <v>1779</v>
       </c>
       <c r="E441" t="s">
-        <v>2119</v>
+        <v>2126</v>
       </c>
       <c r="F441">
         <v>300000</v>
@@ -15641,7 +15671,7 @@
         <v>1780</v>
       </c>
       <c r="E442" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="F442">
         <v>193521</v>
@@ -15661,7 +15691,7 @@
         <v>1781</v>
       </c>
       <c r="E443" t="s">
-        <v>2120</v>
+        <v>2127</v>
       </c>
       <c r="F443">
         <v>212480</v>
@@ -15681,7 +15711,7 @@
         <v>1782</v>
       </c>
       <c r="E444" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="F444">
         <v>513875</v>
@@ -15701,7 +15731,7 @@
         <v>1783</v>
       </c>
       <c r="E445" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="F445">
         <v>392465</v>
@@ -15721,7 +15751,7 @@
         <v>1784</v>
       </c>
       <c r="E446" t="s">
-        <v>2121</v>
+        <v>2128</v>
       </c>
       <c r="F446">
         <v>546017</v>
@@ -15741,7 +15771,7 @@
         <v>1785</v>
       </c>
       <c r="E447" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="F447">
         <v>104088</v>
@@ -15761,7 +15791,7 @@
         <v>1786</v>
       </c>
       <c r="E448" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="F448">
         <v>198915</v>
@@ -15781,7 +15811,7 @@
         <v>1787</v>
       </c>
       <c r="E449" t="s">
-        <v>2122</v>
+        <v>2129</v>
       </c>
       <c r="F449">
         <v>344192</v>
@@ -15801,7 +15831,7 @@
         <v>1788</v>
       </c>
       <c r="E450" t="s">
-        <v>2123</v>
+        <v>2130</v>
       </c>
       <c r="F450">
         <v>373871</v>
@@ -15821,7 +15851,7 @@
         <v>1789</v>
       </c>
       <c r="E451" t="s">
-        <v>2124</v>
+        <v>2131</v>
       </c>
       <c r="F451">
         <v>349503</v>
@@ -15841,7 +15871,7 @@
         <v>1790</v>
       </c>
       <c r="E452" t="s">
-        <v>2125</v>
+        <v>2132</v>
       </c>
       <c r="F452">
         <v>211849</v>
@@ -15861,7 +15891,7 @@
         <v>1769</v>
       </c>
       <c r="E453" t="s">
-        <v>2126</v>
+        <v>2133</v>
       </c>
       <c r="F453">
         <v>180303</v>
@@ -15881,10 +15911,10 @@
         <v>1791</v>
       </c>
       <c r="E454" t="s">
-        <v>2127</v>
+        <v>2134</v>
       </c>
       <c r="F454">
-        <v>221553</v>
+        <v>220714</v>
       </c>
     </row>
     <row r="455" spans="1:6">
@@ -15901,7 +15931,7 @@
         <v>1792</v>
       </c>
       <c r="E455" t="s">
-        <v>2128</v>
+        <v>2135</v>
       </c>
       <c r="F455">
         <v>1520780</v>
@@ -15921,7 +15951,7 @@
         <v>1793</v>
       </c>
       <c r="E456" t="s">
-        <v>2129</v>
+        <v>2136</v>
       </c>
       <c r="F456">
         <v>222473</v>
@@ -15941,7 +15971,7 @@
         <v>1794</v>
       </c>
       <c r="E457" t="s">
-        <v>2130</v>
+        <v>2137</v>
       </c>
       <c r="F457">
         <v>154274</v>
@@ -15961,7 +15991,7 @@
         <v>1795</v>
       </c>
       <c r="E458" t="s">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="F458">
         <v>56103</v>
@@ -15981,7 +16011,7 @@
         <v>1796</v>
       </c>
       <c r="E459" t="s">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="F459">
         <v>240550</v>
@@ -16001,7 +16031,7 @@
         <v>1797</v>
       </c>
       <c r="E460" t="s">
-        <v>2131</v>
+        <v>2138</v>
       </c>
       <c r="F460">
         <v>223478</v>
@@ -16015,16 +16045,16 @@
         <v>1046</v>
       </c>
       <c r="C461" t="s">
-        <v>1342</v>
+        <v>1213</v>
       </c>
       <c r="D461" t="s">
-        <v>1798</v>
+        <v>1753</v>
       </c>
       <c r="E461" t="s">
-        <v>2132</v>
+        <v>2139</v>
       </c>
       <c r="F461">
-        <v>179095</v>
+        <v>459819</v>
       </c>
     </row>
     <row r="462" spans="1:6">
@@ -16035,16 +16065,16 @@
         <v>1047</v>
       </c>
       <c r="C462" t="s">
-        <v>1373</v>
+        <v>1342</v>
       </c>
       <c r="D462" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="E462" t="s">
-        <v>2133</v>
+        <v>2140</v>
       </c>
       <c r="F462">
-        <v>1865620</v>
+        <v>179095</v>
       </c>
     </row>
     <row r="463" spans="1:6">
@@ -16055,16 +16085,16 @@
         <v>1048</v>
       </c>
       <c r="C463" t="s">
-        <v>1213</v>
+        <v>1373</v>
       </c>
       <c r="D463" t="s">
-        <v>1753</v>
+        <v>1799</v>
       </c>
       <c r="E463" t="s">
-        <v>2010</v>
+        <v>2141</v>
       </c>
       <c r="F463">
-        <v>461569</v>
+        <v>1865620</v>
       </c>
     </row>
     <row r="464" spans="1:6">
@@ -16081,7 +16111,7 @@
         <v>1800</v>
       </c>
       <c r="E464" t="s">
-        <v>2134</v>
+        <v>2142</v>
       </c>
       <c r="F464">
         <v>49647</v>
@@ -16101,7 +16131,7 @@
         <v>1801</v>
       </c>
       <c r="E465" t="s">
-        <v>2135</v>
+        <v>2143</v>
       </c>
       <c r="F465">
         <v>461765</v>
@@ -16121,7 +16151,7 @@
         <v>1802</v>
       </c>
       <c r="E466" t="s">
-        <v>2136</v>
+        <v>2144</v>
       </c>
       <c r="F466">
         <v>58759</v>
@@ -16141,7 +16171,7 @@
         <v>1803</v>
       </c>
       <c r="E467" t="s">
-        <v>2137</v>
+        <v>2145</v>
       </c>
       <c r="F467">
         <v>454000</v>
@@ -16161,7 +16191,7 @@
         <v>1804</v>
       </c>
       <c r="E468" t="s">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="F468">
         <v>205550</v>
@@ -16181,7 +16211,7 @@
         <v>1805</v>
       </c>
       <c r="E469" t="s">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="F469">
         <v>761905</v>
@@ -16201,7 +16231,7 @@
         <v>1806</v>
       </c>
       <c r="E470" t="s">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="F470">
         <v>85818</v>
@@ -16221,10 +16251,10 @@
         <v>1807</v>
       </c>
       <c r="E471" t="s">
-        <v>2138</v>
+        <v>2146</v>
       </c>
       <c r="F471">
-        <v>1364557</v>
+        <v>1363246</v>
       </c>
     </row>
     <row r="472" spans="1:6">
@@ -16241,7 +16271,7 @@
         <v>1808</v>
       </c>
       <c r="E472" t="s">
-        <v>2139</v>
+        <v>2147</v>
       </c>
       <c r="F472">
         <v>263284</v>
@@ -16261,7 +16291,7 @@
         <v>1525</v>
       </c>
       <c r="E473" t="s">
-        <v>2026</v>
+        <v>2029</v>
       </c>
       <c r="F473">
         <v>886220</v>
@@ -16281,7 +16311,7 @@
         <v>1801</v>
       </c>
       <c r="E474" t="s">
-        <v>2140</v>
+        <v>2148</v>
       </c>
       <c r="F474">
         <v>523853</v>
@@ -16301,7 +16331,7 @@
         <v>1809</v>
       </c>
       <c r="E475" t="s">
-        <v>2027</v>
+        <v>2030</v>
       </c>
       <c r="F475">
         <v>499722</v>
@@ -16321,7 +16351,7 @@
         <v>1810</v>
       </c>
       <c r="E476" t="s">
-        <v>2141</v>
+        <v>2149</v>
       </c>
       <c r="F476">
         <v>212000</v>
@@ -16341,7 +16371,7 @@
         <v>1811</v>
       </c>
       <c r="E477" t="s">
-        <v>2142</v>
+        <v>2150</v>
       </c>
       <c r="F477">
         <v>513755</v>
@@ -16361,7 +16391,7 @@
         <v>1719</v>
       </c>
       <c r="E478" t="s">
-        <v>2143</v>
+        <v>2151</v>
       </c>
       <c r="F478">
         <v>247500</v>
@@ -16381,7 +16411,7 @@
         <v>1812</v>
       </c>
       <c r="E479" t="s">
-        <v>2033</v>
+        <v>2036</v>
       </c>
       <c r="F479">
         <v>313676</v>
@@ -16401,7 +16431,7 @@
         <v>1813</v>
       </c>
       <c r="E480" t="s">
-        <v>2033</v>
+        <v>2036</v>
       </c>
       <c r="F480">
         <v>149254</v>
@@ -16421,10 +16451,10 @@
         <v>1525</v>
       </c>
       <c r="E481" t="s">
-        <v>2042</v>
+        <v>2046</v>
       </c>
       <c r="F481">
-        <v>1248570</v>
+        <v>1247360</v>
       </c>
     </row>
     <row r="482" spans="1:6">
@@ -16441,7 +16471,7 @@
         <v>1814</v>
       </c>
       <c r="E482" t="s">
-        <v>2144</v>
+        <v>2152</v>
       </c>
       <c r="F482">
         <v>180600</v>
@@ -16461,7 +16491,7 @@
         <v>1815</v>
       </c>
       <c r="E483" t="s">
-        <v>2145</v>
+        <v>2153</v>
       </c>
       <c r="F483">
         <v>280083</v>
@@ -16481,7 +16511,7 @@
         <v>1816</v>
       </c>
       <c r="E484" t="s">
-        <v>2146</v>
+        <v>2154</v>
       </c>
       <c r="F484">
         <v>180274</v>
@@ -16501,7 +16531,7 @@
         <v>1817</v>
       </c>
       <c r="E485" t="s">
-        <v>2147</v>
+        <v>2155</v>
       </c>
       <c r="F485">
         <v>341731</v>
@@ -16521,7 +16551,7 @@
         <v>1818</v>
       </c>
       <c r="E486" t="s">
-        <v>2148</v>
+        <v>2156</v>
       </c>
       <c r="F486">
         <v>315210</v>
@@ -16541,7 +16571,7 @@
         <v>1819</v>
       </c>
       <c r="E487" t="s">
-        <v>2149</v>
+        <v>2157</v>
       </c>
       <c r="F487">
         <v>411447</v>
@@ -16561,7 +16591,7 @@
         <v>1820</v>
       </c>
       <c r="E488" t="s">
-        <v>2150</v>
+        <v>2158</v>
       </c>
       <c r="F488">
         <v>430288</v>
@@ -16575,16 +16605,10 @@
         <v>1074</v>
       </c>
       <c r="C489" t="s">
-        <v>1331</v>
+        <v>1169</v>
       </c>
       <c r="D489" t="s">
         <v>1821</v>
-      </c>
-      <c r="E489" t="s">
-        <v>2151</v>
-      </c>
-      <c r="F489">
-        <v>745972</v>
       </c>
     </row>
     <row r="490" spans="1:6">
@@ -16595,10 +16619,16 @@
         <v>1075</v>
       </c>
       <c r="C490" t="s">
-        <v>1169</v>
+        <v>1331</v>
       </c>
       <c r="D490" t="s">
         <v>1822</v>
+      </c>
+      <c r="E490" t="s">
+        <v>2159</v>
+      </c>
+      <c r="F490">
+        <v>745972</v>
       </c>
     </row>
     <row r="491" spans="1:6">
@@ -16615,7 +16645,7 @@
         <v>1823</v>
       </c>
       <c r="E491" t="s">
-        <v>2152</v>
+        <v>2160</v>
       </c>
       <c r="F491">
         <v>260000</v>
@@ -16635,7 +16665,7 @@
         <v>1824</v>
       </c>
       <c r="E492" t="s">
-        <v>2153</v>
+        <v>2161</v>
       </c>
       <c r="F492">
         <v>390328</v>
@@ -16655,7 +16685,7 @@
         <v>1825</v>
       </c>
       <c r="E493" t="s">
-        <v>2154</v>
+        <v>2162</v>
       </c>
       <c r="F493">
         <v>1838166</v>
@@ -16675,7 +16705,7 @@
         <v>1826</v>
       </c>
       <c r="E494" t="s">
-        <v>2155</v>
+        <v>2163</v>
       </c>
       <c r="F494">
         <v>657038</v>
@@ -16695,10 +16725,10 @@
         <v>1827</v>
       </c>
       <c r="E495" t="s">
-        <v>2156</v>
+        <v>2164</v>
       </c>
       <c r="F495">
-        <v>1882210</v>
+        <v>1875070</v>
       </c>
     </row>
     <row r="496" spans="1:6">
@@ -16715,7 +16745,7 @@
         <v>1828</v>
       </c>
       <c r="E496" t="s">
-        <v>2157</v>
+        <v>2165</v>
       </c>
       <c r="F496">
         <v>315448</v>
@@ -16735,7 +16765,7 @@
         <v>1829</v>
       </c>
       <c r="E497" t="s">
-        <v>2158</v>
+        <v>2166</v>
       </c>
       <c r="F497">
         <v>440415</v>
@@ -16815,7 +16845,7 @@
         <v>1831</v>
       </c>
       <c r="E501" t="s">
-        <v>2159</v>
+        <v>2167</v>
       </c>
       <c r="F501">
         <v>480132</v>
@@ -16895,7 +16925,7 @@
         <v>1495</v>
       </c>
       <c r="E505" t="s">
-        <v>2160</v>
+        <v>2168</v>
       </c>
       <c r="F505">
         <v>211608</v>
@@ -16915,10 +16945,10 @@
         <v>1481</v>
       </c>
       <c r="E506" t="s">
-        <v>2161</v>
+        <v>2169</v>
       </c>
       <c r="F506">
-        <v>295417</v>
+        <v>294283</v>
       </c>
     </row>
     <row r="507" spans="1:6">
@@ -16955,7 +16985,7 @@
         <v>1836</v>
       </c>
       <c r="E508" t="s">
-        <v>2162</v>
+        <v>2170</v>
       </c>
       <c r="F508">
         <v>370052</v>
@@ -16975,7 +17005,7 @@
         <v>1414</v>
       </c>
       <c r="E509" t="s">
-        <v>2163</v>
+        <v>2171</v>
       </c>
       <c r="F509">
         <v>694286</v>
@@ -17055,7 +17085,7 @@
         <v>1839</v>
       </c>
       <c r="E513" t="s">
-        <v>2164</v>
+        <v>2172</v>
       </c>
       <c r="F513">
         <v>671040</v>
@@ -17155,7 +17185,7 @@
         <v>1842</v>
       </c>
       <c r="E518" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="F518">
         <v>250836</v>
@@ -17175,7 +17205,7 @@
         <v>1843</v>
       </c>
       <c r="E519" t="s">
-        <v>2165</v>
+        <v>2173</v>
       </c>
       <c r="F519">
         <v>379683</v>
@@ -17195,10 +17225,10 @@
         <v>1844</v>
       </c>
       <c r="E520" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="F520">
-        <v>437360</v>
+        <v>435702</v>
       </c>
     </row>
     <row r="521" spans="1:6">
@@ -17215,7 +17245,7 @@
         <v>1845</v>
       </c>
       <c r="E521" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="F521">
         <v>644783</v>
@@ -17235,10 +17265,10 @@
         <v>1481</v>
       </c>
       <c r="E522" t="s">
-        <v>1997</v>
+        <v>2174</v>
       </c>
       <c r="F522">
-        <v>923150</v>
+        <v>919650</v>
       </c>
     </row>
     <row r="523" spans="1:6">
@@ -17255,7 +17285,7 @@
         <v>1444</v>
       </c>
       <c r="E523" t="s">
-        <v>2122</v>
+        <v>2129</v>
       </c>
       <c r="F523">
         <v>695652</v>
@@ -17275,7 +17305,7 @@
         <v>1529</v>
       </c>
       <c r="E524" t="s">
-        <v>2166</v>
+        <v>2175</v>
       </c>
       <c r="F524">
         <v>728338</v>
@@ -17295,7 +17325,7 @@
         <v>1620</v>
       </c>
       <c r="E525" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="F525">
         <v>333333</v>
@@ -17315,7 +17345,7 @@
         <v>1846</v>
       </c>
       <c r="E526" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="F526">
         <v>318471</v>
@@ -17349,7 +17379,7 @@
         <v>1718</v>
       </c>
       <c r="E528" t="s">
-        <v>2167</v>
+        <v>2176</v>
       </c>
       <c r="F528">
         <v>322870</v>
@@ -17369,7 +17399,7 @@
         <v>1848</v>
       </c>
       <c r="E529" t="s">
-        <v>2167</v>
+        <v>2176</v>
       </c>
       <c r="F529">
         <v>393873</v>
@@ -17389,10 +17419,10 @@
         <v>1849</v>
       </c>
       <c r="E530" t="s">
-        <v>2010</v>
+        <v>2139</v>
       </c>
       <c r="F530">
-        <v>731923</v>
+        <v>729148</v>
       </c>
     </row>
     <row r="531" spans="1:6">
@@ -17409,7 +17439,7 @@
         <v>1850</v>
       </c>
       <c r="E531" t="s">
-        <v>2027</v>
+        <v>2030</v>
       </c>
       <c r="F531">
         <v>327273</v>
@@ -17429,10 +17459,10 @@
         <v>1851</v>
       </c>
       <c r="E532" t="s">
-        <v>2030</v>
+        <v>2033</v>
       </c>
       <c r="F532">
-        <v>916097</v>
+        <v>912624</v>
       </c>
     </row>
     <row r="533" spans="1:6">
@@ -17449,7 +17479,7 @@
         <v>1852</v>
       </c>
       <c r="E533" t="s">
-        <v>2168</v>
+        <v>2177</v>
       </c>
       <c r="F533">
         <v>469964</v>
@@ -17469,7 +17499,7 @@
         <v>1853</v>
       </c>
       <c r="E534" t="s">
-        <v>2038</v>
+        <v>2041</v>
       </c>
       <c r="F534">
         <v>778485</v>
@@ -17489,7 +17519,7 @@
         <v>1854</v>
       </c>
       <c r="E535" t="s">
-        <v>2169</v>
+        <v>2178</v>
       </c>
       <c r="F535">
         <v>250000</v>
@@ -17509,7 +17539,7 @@
         <v>1855</v>
       </c>
       <c r="E536" t="s">
-        <v>2170</v>
+        <v>2179</v>
       </c>
       <c r="F536">
         <v>388889</v>
@@ -17543,7 +17573,7 @@
         <v>1857</v>
       </c>
       <c r="E538" t="s">
-        <v>2171</v>
+        <v>2180</v>
       </c>
       <c r="F538">
         <v>590000</v>
@@ -17563,7 +17593,7 @@
         <v>1858</v>
       </c>
       <c r="E539" t="s">
-        <v>2062</v>
+        <v>2066</v>
       </c>
       <c r="F539">
         <v>308411</v>
@@ -17583,7 +17613,7 @@
         <v>1407</v>
       </c>
       <c r="E540" t="s">
-        <v>2172</v>
+        <v>2181</v>
       </c>
       <c r="F540">
         <v>161765</v>
@@ -17683,7 +17713,7 @@
         <v>1862</v>
       </c>
       <c r="E545" t="s">
-        <v>2173</v>
+        <v>2182</v>
       </c>
       <c r="F545">
         <v>222392</v>
@@ -17757,7 +17787,7 @@
         <v>1865</v>
       </c>
       <c r="E549" t="s">
-        <v>2174</v>
+        <v>2183</v>
       </c>
       <c r="F549">
         <v>286004</v>
@@ -17791,7 +17821,7 @@
         <v>1851</v>
       </c>
       <c r="E551" t="s">
-        <v>2175</v>
+        <v>2184</v>
       </c>
       <c r="F551">
         <v>151718</v>
@@ -17865,7 +17895,7 @@
         <v>1869</v>
       </c>
       <c r="E555" t="s">
-        <v>2095</v>
+        <v>2100</v>
       </c>
       <c r="F555">
         <v>192708</v>
@@ -17885,7 +17915,7 @@
         <v>1870</v>
       </c>
       <c r="E556" t="s">
-        <v>2176</v>
+        <v>2185</v>
       </c>
       <c r="F556">
         <v>195173</v>
@@ -17905,7 +17935,7 @@
         <v>1871</v>
       </c>
       <c r="E557" t="s">
-        <v>2097</v>
+        <v>2102</v>
       </c>
       <c r="F557">
         <v>160945</v>
@@ -17965,7 +17995,7 @@
         <v>1873</v>
       </c>
       <c r="E560" t="s">
-        <v>2177</v>
+        <v>2186</v>
       </c>
       <c r="F560">
         <v>598972</v>
@@ -17985,7 +18015,7 @@
         <v>1874</v>
       </c>
       <c r="E561" t="s">
-        <v>2178</v>
+        <v>2187</v>
       </c>
       <c r="F561">
         <v>244570</v>
@@ -18005,7 +18035,7 @@
         <v>1869</v>
       </c>
       <c r="E562" t="s">
-        <v>2107</v>
+        <v>2112</v>
       </c>
       <c r="F562">
         <v>270833</v>
@@ -18085,7 +18115,7 @@
         <v>1877</v>
       </c>
       <c r="E566" t="s">
-        <v>2179</v>
+        <v>2188</v>
       </c>
       <c r="F566">
         <v>250000</v>
@@ -18105,7 +18135,7 @@
         <v>1878</v>
       </c>
       <c r="E567" t="s">
-        <v>2180</v>
+        <v>2189</v>
       </c>
       <c r="F567">
         <v>218902</v>
@@ -18145,7 +18175,7 @@
         <v>1880</v>
       </c>
       <c r="E569" t="s">
-        <v>2181</v>
+        <v>2190</v>
       </c>
       <c r="F569">
         <v>463476</v>
@@ -18165,7 +18195,7 @@
         <v>1881</v>
       </c>
       <c r="E570" t="s">
-        <v>2182</v>
+        <v>2191</v>
       </c>
       <c r="F570">
         <v>542493</v>
@@ -18205,7 +18235,7 @@
         <v>1882</v>
       </c>
       <c r="E572" t="s">
-        <v>2183</v>
+        <v>2192</v>
       </c>
       <c r="F572">
         <v>550627</v>
@@ -18225,7 +18255,7 @@
         <v>1620</v>
       </c>
       <c r="E573" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="F573">
         <v>250000</v>
@@ -18245,7 +18275,7 @@
         <v>1883</v>
       </c>
       <c r="E574" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="F574">
         <v>529158</v>
@@ -18265,7 +18295,7 @@
         <v>1884</v>
       </c>
       <c r="E575" t="s">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="F575">
         <v>761421</v>
@@ -18285,7 +18315,7 @@
         <v>1885</v>
       </c>
       <c r="E576" t="s">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="F576">
         <v>857449</v>
@@ -18305,7 +18335,7 @@
         <v>1466</v>
       </c>
       <c r="E577" t="s">
-        <v>2023</v>
+        <v>2026</v>
       </c>
       <c r="F577">
         <v>550982</v>
@@ -18325,7 +18355,7 @@
         <v>1886</v>
       </c>
       <c r="E578" t="s">
-        <v>2027</v>
+        <v>2030</v>
       </c>
       <c r="F578">
         <v>656934</v>
@@ -18359,7 +18389,7 @@
         <v>1888</v>
       </c>
       <c r="E580" t="s">
-        <v>2184</v>
+        <v>2193</v>
       </c>
       <c r="F580">
         <v>735680</v>
@@ -18379,10 +18409,10 @@
         <v>1889</v>
       </c>
       <c r="E581" t="s">
-        <v>2151</v>
+        <v>2194</v>
       </c>
       <c r="F581">
-        <v>1588881</v>
+        <v>1582849</v>
       </c>
     </row>
     <row r="582" spans="1:6">
@@ -18399,10 +18429,10 @@
         <v>1890</v>
       </c>
       <c r="E582" t="s">
-        <v>2151</v>
+        <v>2194</v>
       </c>
       <c r="F582">
-        <v>1210675</v>
+        <v>1206079</v>
       </c>
     </row>
   </sheetData>
